--- a/data/trans_orig/IP15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA57C49-7F1E-46D3-B022-3AEB80B60869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E53430-4D9B-45EB-9F6D-DA3DB7AF5FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{973FFAC7-D853-49B9-8023-3158F62D13B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E2ECAA0-ECBF-457F-8B2D-ACD34E62BC96}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="290">
   <si>
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -104,55 +104,55 @@
     <t>23,33%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>76,67%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,55 +161,55 @@
     <t>18,38%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>81,62%</t>
   </si>
   <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>80,6%</t>
   </si>
   <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -218,502 +218,472 @@
     <t>22,3%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>14,64%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>21,09%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
   </si>
   <si>
     <t>78,91%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>76,38%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>36,39%</t>
+    <t>36,98%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>63,61%</t>
+    <t>63,02%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>83,33%</t>
   </si>
   <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>86,66%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
+    <t>18,75%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>20,45%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>15,75%</t>
+    <t>15,74%</t>
   </si>
   <si>
     <t>18,92%</t>
@@ -722,19 +692,13 @@
     <t>83,45%</t>
   </si>
   <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
+    <t>81,25%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>79,55%</t>
   </si>
   <si>
     <t>82,7%</t>
@@ -743,7 +707,7 @@
     <t>81,08%</t>
   </si>
   <si>
-    <t>84,25%</t>
+    <t>84,26%</t>
   </si>
   <si>
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
@@ -752,199 +716,199 @@
     <t>24,45%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>37,95%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>33,97%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>62,05%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>66,03%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>23,27%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>27,03%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>22,92%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>76,73%</t>
   </si>
   <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>72,97%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>77,08%</t>
   </si>
   <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>25,06%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
   </si>
   <si>
     <t>74,94%</t>
   </si>
   <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>26,86%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>21,69%</t>
+    <t>21,65%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>73,14%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>78,31%</t>
+    <t>78,35%</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9979B6B3-AA13-4EB0-B0E5-F951570C695F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9C950-054B-45A6-BB21-C4F92C165537}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2257,7 +2221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE73CE19-0935-4837-A01F-1316FDB6D167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26BD6D3-8599-42B5-BCFF-8E26A3E77018}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2563,10 +2527,10 @@
         <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,28 +2545,28 @@
         <v>68085</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
       </c>
       <c r="I8" s="7">
-        <v>69307</v>
+        <v>69308</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>196</v>
@@ -2611,13 +2575,13 @@
         <v>137393</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,7 +2608,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2685,13 +2649,13 @@
         <v>101034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -2700,13 +2664,13 @@
         <v>88236</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>272</v>
@@ -2715,13 +2679,13 @@
         <v>189270</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2700,13 @@
         <v>393412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>527</v>
@@ -2751,13 +2715,13 @@
         <v>363974</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>1091</v>
@@ -2766,13 +2730,13 @@
         <v>757386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2804,13 @@
         <v>39433</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -2855,13 +2819,13 @@
         <v>36404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>105</v>
@@ -2870,13 +2834,13 @@
         <v>75836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2855,13 @@
         <v>131296</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>185</v>
@@ -2906,13 +2870,13 @@
         <v>130408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>373</v>
@@ -2921,13 +2885,13 @@
         <v>261705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2959,13 @@
         <v>158574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>213</v>
@@ -3010,13 +2974,13 @@
         <v>147701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -3025,13 +2989,13 @@
         <v>306275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3010,13 @@
         <v>593434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
         <v>812</v>
@@ -3061,13 +3025,13 @@
         <v>563690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>1661</v>
@@ -3076,13 +3040,13 @@
         <v>1157124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203AD33E-7A41-4C9D-891A-188F19FA0E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B765FA-16C4-4C3C-B670-067028301244}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3175,7 +3139,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3419,13 +3383,13 @@
         <v>8786</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3434,13 +3398,13 @@
         <v>15691</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -3449,13 +3413,13 @@
         <v>24477</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3434,13 @@
         <v>59828</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -3485,10 +3449,10 @@
         <v>43687</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>71</v>
@@ -3500,13 +3464,13 @@
         <v>103516</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3538,13 @@
         <v>85620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -3589,13 +3553,13 @@
         <v>82979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>253</v>
@@ -3604,13 +3568,13 @@
         <v>168599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3589,13 @@
         <v>403115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>587</v>
@@ -3640,13 +3604,13 @@
         <v>389311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1156</v>
@@ -3655,13 +3619,13 @@
         <v>792426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3693,13 @@
         <v>28870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3744,13 +3708,13 @@
         <v>28792</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -3759,13 +3723,13 @@
         <v>57661</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3744,13 @@
         <v>158625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -3795,13 +3759,13 @@
         <v>143911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>445</v>
@@ -3810,13 +3774,13 @@
         <v>302536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3848,13 @@
         <v>123276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>192</v>
@@ -3899,13 +3863,13 @@
         <v>127461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -3914,13 +3878,13 @@
         <v>250737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3899,13 @@
         <v>621568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>869</v>
@@ -3950,13 +3914,13 @@
         <v>576910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>1755</v>
@@ -3965,13 +3929,13 @@
         <v>1198478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C57F1C3-148F-4376-AE6E-EF85F716DF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB2EB8-C336-4117-B378-D4A624A50114}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4064,7 +4028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4320,13 +4284,13 @@
         <v>14366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4335,13 +4299,13 @@
         <v>11816</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -4350,13 +4314,13 @@
         <v>26182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4335,13 @@
         <v>44391</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -4386,13 +4350,13 @@
         <v>36952</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="M8" s="7">
         <v>115</v>
@@ -4401,13 +4365,13 @@
         <v>81343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4439,13 @@
         <v>114416</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -4490,13 +4454,13 @@
         <v>101241</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>318</v>
@@ -4505,13 +4469,13 @@
         <v>215658</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4490,13 @@
         <v>377217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>498</v>
@@ -4541,13 +4505,13 @@
         <v>347895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
@@ -4556,13 +4520,13 @@
         <v>725111</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4594,13 @@
         <v>43754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4645,13 +4609,13 @@
         <v>41355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -4660,13 +4624,13 @@
         <v>85109</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4645,13 @@
         <v>130829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -4696,13 +4660,13 @@
         <v>110015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>346</v>
@@ -4711,13 +4675,13 @@
         <v>240843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4749,13 @@
         <v>172537</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -4800,13 +4764,13 @@
         <v>154412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>476</v>
@@ -4815,13 +4779,13 @@
         <v>326949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4800,13 @@
         <v>552435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>715</v>
@@ -4851,13 +4815,13 @@
         <v>496033</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>1441</v>
@@ -4866,13 +4830,13 @@
         <v>1048469</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E53430-4D9B-45EB-9F6D-DA3DB7AF5FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6C62F7-2CFC-4419-913E-593243DB2456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E2ECAA0-ECBF-457F-8B2D-ACD34E62BC96}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9B04D64B-CDB8-42E8-8917-9A39610B13E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,847 +68,856 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>14,34%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>83,45%</t>
   </si>
   <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>85,66%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>84,39%</t>
   </si>
   <si>
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
   </si>
 </sst>
 </file>
@@ -1320,8 +1329,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9C950-054B-45A6-BB21-C4F92C165537}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE69AC96-8054-4EC4-97E8-2BDAA84C441E}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1438,10 +1447,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>22047</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1453,81 +1462,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20258</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>42306</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>68820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="I5" s="7">
+        <v>66587</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>135406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,151 +1549,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D7" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>22047</v>
+        <v>87669</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N7" s="7">
-        <v>42306</v>
+        <v>168376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>100</v>
+        <v>506</v>
       </c>
       <c r="D8" s="7">
-        <v>66586</v>
+        <v>335380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>103</v>
+        <v>587</v>
       </c>
       <c r="I8" s="7">
-        <v>68820</v>
+        <v>389322</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>203</v>
+        <v>1093</v>
       </c>
       <c r="N8" s="7">
-        <v>135406</v>
+        <v>724702</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,153 +1704,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>168376</v>
+        <v>57817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>587</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>389322</v>
+        <v>151515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>506</v>
+        <v>184</v>
       </c>
       <c r="I11" s="7">
-        <v>335380</v>
+        <v>122872</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1093</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>724702</v>
+        <v>274388</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,153 +1859,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D13" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I13" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N13" s="7">
-        <v>57817</v>
+        <v>268498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>828</v>
       </c>
       <c r="D14" s="7">
-        <v>122872</v>
+        <v>555716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>219</v>
+        <v>871</v>
       </c>
       <c r="I14" s="7">
-        <v>151515</v>
+        <v>578781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>403</v>
+        <v>1699</v>
       </c>
       <c r="N14" s="7">
-        <v>274388</v>
+        <v>1134497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,216 +2014,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>215</v>
-      </c>
-      <c r="D16" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>190</v>
-      </c>
-      <c r="I16" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>405</v>
-      </c>
-      <c r="N16" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>871</v>
-      </c>
-      <c r="D17" s="7">
-        <v>578781</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>828</v>
-      </c>
-      <c r="I17" s="7">
-        <v>555716</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1699</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1134497</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2221,8 +2080,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26BD6D3-8599-42B5-BCFF-8E26A3E77018}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83A59D8-7B74-4D9A-A3DA-154D39CCBBCB}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2238,7 +2097,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2339,96 +2198,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>23061</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18107</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>41168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>69308</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68085</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>137393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,151 +2300,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D7" s="7">
-        <v>18107</v>
+        <v>88236</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I7" s="7">
-        <v>23061</v>
+        <v>101034</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="N7" s="7">
-        <v>41168</v>
+        <v>189270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>96</v>
+        <v>527</v>
       </c>
       <c r="D8" s="7">
-        <v>68085</v>
+        <v>363974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <v>564</v>
       </c>
       <c r="I8" s="7">
-        <v>69308</v>
+        <v>393412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>196</v>
+        <v>1091</v>
       </c>
       <c r="N8" s="7">
-        <v>137393</v>
+        <v>757386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,153 +2455,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>655</v>
       </c>
       <c r="D9" s="7">
-        <v>86192</v>
+        <v>452210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>708</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>494446</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>255</v>
+        <v>1363</v>
       </c>
       <c r="N9" s="7">
-        <v>178561</v>
+        <v>946656</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>101034</v>
+        <v>36404</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7">
+        <v>39433</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="7">
-        <v>88236</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="N10" s="7">
-        <v>189270</v>
+        <v>75836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>564</v>
+        <v>185</v>
       </c>
       <c r="D11" s="7">
-        <v>393412</v>
+        <v>130408</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>527</v>
+        <v>188</v>
       </c>
       <c r="I11" s="7">
-        <v>363974</v>
+        <v>131296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>1091</v>
+        <v>373</v>
       </c>
       <c r="N11" s="7">
-        <v>757386</v>
+        <v>261705</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,153 +2610,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>708</v>
+        <v>236</v>
       </c>
       <c r="D12" s="7">
-        <v>494446</v>
+        <v>166812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>655</v>
+        <v>242</v>
       </c>
       <c r="I12" s="7">
-        <v>452210</v>
+        <v>170729</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1363</v>
+        <v>478</v>
       </c>
       <c r="N12" s="7">
-        <v>946656</v>
+        <v>337541</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="D13" s="7">
-        <v>39433</v>
+        <v>147701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="I13" s="7">
-        <v>36404</v>
+        <v>158574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
+        <v>436</v>
       </c>
       <c r="N13" s="7">
-        <v>75836</v>
+        <v>306275</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>188</v>
+        <v>812</v>
       </c>
       <c r="D14" s="7">
-        <v>131296</v>
+        <v>563690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>185</v>
+        <v>848</v>
       </c>
       <c r="I14" s="7">
-        <v>130408</v>
+        <v>592793</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>373</v>
+        <v>1660</v>
       </c>
       <c r="N14" s="7">
-        <v>261705</v>
+        <v>1156483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,216 +2765,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>242</v>
+        <v>1025</v>
       </c>
       <c r="D15" s="7">
-        <v>170729</v>
+        <v>711391</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>236</v>
+        <v>1071</v>
       </c>
       <c r="I15" s="7">
-        <v>166812</v>
+        <v>751367</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>478</v>
+        <v>2096</v>
       </c>
       <c r="N15" s="7">
-        <v>337541</v>
+        <v>1462758</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>223</v>
-      </c>
-      <c r="D16" s="7">
-        <v>158574</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="7">
-        <v>213</v>
-      </c>
-      <c r="I16" s="7">
-        <v>147701</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" s="7">
-        <v>436</v>
-      </c>
-      <c r="N16" s="7">
-        <v>306275</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>849</v>
-      </c>
-      <c r="D17" s="7">
-        <v>593434</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="7">
-        <v>812</v>
-      </c>
-      <c r="I17" s="7">
-        <v>563690</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1661</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1157124</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1072</v>
-      </c>
-      <c r="D18" s="7">
-        <v>752008</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I18" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2097</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1463399</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3122,8 +2831,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B765FA-16C4-4C3C-B670-067028301244}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E49A278-5D34-49B7-BC4E-08971E21E418}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3139,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3240,88 +2949,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15691</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8786</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N4" s="7">
+        <v>24477</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43687</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="I5" s="7">
+        <v>59828</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="N5" s="7">
+        <v>103516</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,147 +3051,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D7" s="7">
-        <v>8786</v>
+        <v>82979</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I7" s="7">
-        <v>15691</v>
+        <v>85620</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="N7" s="7">
-        <v>24477</v>
+        <v>168599</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>87</v>
+        <v>587</v>
       </c>
       <c r="D8" s="7">
-        <v>59828</v>
+        <v>389311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
-        <v>67</v>
+        <v>569</v>
       </c>
       <c r="I8" s="7">
-        <v>43687</v>
+        <v>403115</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
-        <v>154</v>
+        <v>1156</v>
       </c>
       <c r="N8" s="7">
-        <v>103516</v>
+        <v>792426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,153 +3206,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>85620</v>
+        <v>28792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>82979</v>
+        <v>28870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>168599</v>
+        <v>57661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>569</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7">
-        <v>403115</v>
+        <v>143911</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>587</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>389311</v>
+        <v>158625</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
-        <v>1156</v>
+        <v>445</v>
       </c>
       <c r="N11" s="7">
-        <v>792426</v>
+        <v>302536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,153 +3361,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7">
-        <v>28870</v>
+        <v>127461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I13" s="7">
-        <v>28792</v>
+        <v>123276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="M13" s="7">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="N13" s="7">
-        <v>57661</v>
+        <v>250737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>230</v>
+        <v>869</v>
       </c>
       <c r="D14" s="7">
-        <v>158625</v>
+        <v>576910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
-        <v>215</v>
+        <v>886</v>
       </c>
       <c r="I14" s="7">
-        <v>143911</v>
+        <v>621568</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
-        <v>445</v>
+        <v>1755</v>
       </c>
       <c r="N14" s="7">
-        <v>302536</v>
+        <v>1198478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,216 +3516,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>179</v>
-      </c>
-      <c r="D16" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="7">
-        <v>192</v>
-      </c>
-      <c r="I16" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M16" s="7">
-        <v>371</v>
-      </c>
-      <c r="N16" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>886</v>
-      </c>
-      <c r="D17" s="7">
-        <v>621568</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="7">
-        <v>869</v>
-      </c>
-      <c r="I17" s="7">
-        <v>576910</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1755</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1198478</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4011,8 +3582,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB2EB8-C336-4117-B378-D4A624A50114}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D09739E-4E32-4E7A-9058-EEAA9BCE8C73}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4028,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4129,96 +3700,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15229</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>30897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D5" s="7">
+        <v>35949</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>46337</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>82285</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,151 +3802,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D6" s="7">
+        <v>51178</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>113182</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D7" s="7">
-        <v>14366</v>
+        <v>120843</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I7" s="7">
-        <v>11816</v>
+        <v>120023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="N7" s="7">
-        <v>26182</v>
+        <v>240866</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>63</v>
+        <v>498</v>
       </c>
       <c r="D8" s="7">
-        <v>44391</v>
+        <v>338851</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
-        <v>52</v>
+        <v>481</v>
       </c>
       <c r="I8" s="7">
-        <v>36952</v>
+        <v>395889</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
-        <v>115</v>
+        <v>979</v>
       </c>
       <c r="N8" s="7">
-        <v>81343</v>
+        <v>734740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,153 +3957,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>68</v>
+        <v>655</v>
       </c>
       <c r="I9" s="7">
-        <v>48768</v>
+        <v>515912</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>1297</v>
       </c>
       <c r="N9" s="7">
-        <v>107525</v>
+        <v>975606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>114416</v>
+        <v>41642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>101241</v>
+        <v>46511</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="N10" s="7">
-        <v>215658</v>
+        <v>88153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>481</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7">
-        <v>377217</v>
+        <v>107909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
-        <v>498</v>
+        <v>182</v>
       </c>
       <c r="I11" s="7">
-        <v>347895</v>
+        <v>136838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
-        <v>979</v>
+        <v>346</v>
       </c>
       <c r="N11" s="7">
-        <v>725111</v>
+        <v>244747</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,153 +4112,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>655</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>491633</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>642</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449136</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1297</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>940769</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D13" s="7">
-        <v>43754</v>
+        <v>177715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I13" s="7">
-        <v>41355</v>
+        <v>182201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="N13" s="7">
-        <v>85109</v>
+        <v>359916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>182</v>
+        <v>714</v>
       </c>
       <c r="D14" s="7">
-        <v>130829</v>
+        <v>482709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
-        <v>164</v>
+        <v>726</v>
       </c>
       <c r="I14" s="7">
-        <v>110015</v>
+        <v>579064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
-        <v>346</v>
+        <v>1440</v>
       </c>
       <c r="N14" s="7">
-        <v>240843</v>
+        <v>1061773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,216 +4267,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>660424</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761265</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1916</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1421689</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>250</v>
-      </c>
-      <c r="D16" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H16" s="7">
-        <v>226</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M16" s="7">
-        <v>476</v>
-      </c>
-      <c r="N16" s="7">
-        <v>326949</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>726</v>
-      </c>
-      <c r="D17" s="7">
-        <v>552435</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H17" s="7">
-        <v>715</v>
-      </c>
-      <c r="I17" s="7">
-        <v>496033</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1441</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1048469</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>724972</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
-      <c r="I18" s="7">
-        <v>650445</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1375418</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
